--- a/data/trans_dic/P10_2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P10_2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que tiene acceso a internet con Wifi</t>
+          <t>Población que tiene acceso a internet con Wifi (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>89,18%</t>
+          <t>92,16%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>89,13%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>89,9%</t>
+          <t>91,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>89,81%</t>
+          <t>91,18%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>89,57%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>91,82%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,78; 92,75</t>
+          <t>87,09; 95,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>81,31; 92,86</t>
+          <t>87,29; 95,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86,22; 92,78</t>
+          <t>86,22; 94,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85,78; 92,91</t>
+          <t>86,56; 94,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>86,35; 91,96</t>
+          <t>88,01; 93,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,84; 91,97</t>
+          <t>88,6; 94,38</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>87,11%</t>
+          <t>85,23%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88,65%</t>
+          <t>84,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>83,7%</t>
+          <t>88,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>84,5%</t>
+          <t>87,8%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>85,28%</t>
+          <t>86,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>86,46%</t>
+          <t>86,41%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80,64; 90,68</t>
+          <t>76,44; 90,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>81,79; 92,26</t>
+          <t>74,38; 90,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77,33; 88,41</t>
+          <t>81,69; 92,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>79,19; 89,24</t>
+          <t>80,71; 92,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,27; 88,41</t>
+          <t>81,67; 90,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>82,64; 89,39</t>
+          <t>80,41; 90,22</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>75,56%</t>
+          <t>69,37%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>76,23%</t>
+          <t>67,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>83,76%</t>
+          <t>88,69%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>82,52%</t>
+          <t>89,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>79,43%</t>
+          <t>78,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>79,25%</t>
+          <t>78,6%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>47,94; 88,33</t>
+          <t>30,16; 93,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>48,18; 89,15</t>
+          <t>27,65; 93,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>72,07; 91,11</t>
+          <t>75,12; 96,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>70,38; 90,27</t>
+          <t>76,56; 96,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>63,31; 87,86</t>
+          <t>51,06; 92,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>62,46; 87,32</t>
+          <t>49,83; 92,55</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>86,66%</t>
+          <t>86,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>87,4%</t>
+          <t>86,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>86,83%</t>
+          <t>89,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>86,97%</t>
+          <t>89,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>86,75%</t>
+          <t>88,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>87,17%</t>
+          <t>88,22%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>81,69; 89,75</t>
+          <t>78,92; 91,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,93; 90,49</t>
+          <t>77,99; 91,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>83,5; 89,45</t>
+          <t>85,7; 92,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,88; 89,73</t>
+          <t>85,69; 92,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>84,19; 88,8</t>
+          <t>84,53; 91,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>84,51; 89,29</t>
+          <t>84,22; 91,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que tiene acceso a internet con Wifi (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>332.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>337069</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>398101</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>396170</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>463979</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>733239</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>862081</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>318533; 349693</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>375429; 412422</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>375357; 411476</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>440426; 482332</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>705063; 752978</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>831901; 886137</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>259710</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>304607</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>309148</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>373475</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>568858</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>678082</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>232925; 276841</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>267331; 324789</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>285991; 325281</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>343320; 393628</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>534786; 593668</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>631049; 708017</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>58844</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>68948</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>73265</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>90564</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>132109</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>159513</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>25580; 79290</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>28139; 94960</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>62056; 79547</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>77451; 97823</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>85493; 154451</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>101128; 187820</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>362.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>638.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>640.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>655623</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>771656</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>778583</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>928018</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1434205</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1699675</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>596052; 687289</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>695083; 812205</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>743899; 803581</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>887214; 959105</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1372260; 1478869</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1622651; 1756250</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>